--- a/medicine/Enfance/Langelot_garde_du_corps/Langelot_garde_du_corps.xlsx
+++ b/medicine/Enfance/Langelot_garde_du_corps/Langelot_garde_du_corps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot garde du corps est le trentième-et-unième roman de la série Langelot, écrite par le Lieutenant X (pseudonyme de Vladimir Volkoff). Il est paru pour la première fois en 1979, dans la Bibliothèque verte.
@@ -513,7 +525,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot : orphelin, agent du Service National d'Information Fonctionnelle, blond, 1,68 m, mince, « traits menus mais durs ».
 Julio (nom de scène de Julio Cesare) : jeune chanteur à succès, d'origine italienne, à la « voix bleue ».
@@ -554,10 +568,12 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Langelot est chargé de convaincre Julio, chanteur, son ancien camarade de Radio-Équipe, rencontré quelques années auparavant, lors d'une mission (cf. Langelot et les Pa-pous), d'accepter d'être l'objet d'un meurtre fictif durant sa tournée musicale au Brésil. 
-« - Seulement, vous serez un garde du corps un peu particulier. Votre mission consistera à faire tuer l'homme que vous serez censé protéger[1], »
+« - Seulement, vous serez un garde du corps un peu particulier. Votre mission consistera à faire tuer l'homme que vous serez censé protéger, »
 déclare le capitaine Montferrand à Langelot.
 Julio a refusé de coopérer avec le lieutenant Carvalho, du SNIF, lequel maîtrisait le portugais ; il est reconnaissant à Langelot de son aide passée.
 Le but de cette mise en scène consiste à faire sortir du plutonium du Brésil où le bandit Schmitsky (cf. Langelot sur la Côte d'Azur) l'a déposé dans un endroit secret, en vue de construire une bombe atomique. Schmitsky dispose de complices au Brésil, notamment d'un policier. Pour quitter le Brésil, ce plutonium que le SNIF veut récupérer, serait caché dans le cercueil en plomb du chanteur, censé avoir été assassiné soit par un fan, soit par un voyou. Le plomb permet le transport en sécurité du matériau radio-actif.
@@ -609,10 +625,12 @@
           <t>Dédicace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu de romans de la série font l'objet d'une dédicace. 
-Celui-ci est dédicacé « A Rémi COUVIGNOU. Com um abraço do amigo. Lt X » (Note : Hachette n'utilise pas les majuscules accentuée, d'où l'erreur typographique de la dédicace sur la lettre « À »).  Rémi Couvignou est un éditeur[2]. Il aurait inspiré, ou rédigé, une partie du roman[3].
+Celui-ci est dédicacé « A Rémi COUVIGNOU. Com um abraço do amigo. Lt X » (Note : Hachette n'utilise pas les majuscules accentuée, d'où l'erreur typographique de la dédicace sur la lettre « À »).  Rémi Couvignou est un éditeur. Il aurait inspiré, ou rédigé, une partie du roman.
 </t>
         </is>
       </c>
@@ -641,7 +659,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1979 - Hachette, Bibliothèque verte (français, version originale), illustré par Maurice Paulin.</t>
         </is>
@@ -671,17 +691,19 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>« Julio et ses Guêpes » peut faire référence à Claude François et à ses « Claudettes » (Claude François est mort en 1978, un an avant la sortie en librairie du roman). Les Claudettes sont également au nombre de quatre ; entre 1977 et 1978, elles utilisent un fameux bikini brésilien argenté en strass. Cependant, les Guêpes sont de vraies musiciennes contrairement aux Claudettes.
 En mars 1979, le nouveau président du Brésil amorce un mouvement de la dictature militaire vers la démocratie, avec une loi d'amnistie.
-« Hachichin », le garde du corps de Julio, que Langelot assomme, puis évince, évoque un produit stupéfiant, ainsi que la secte des Assassins, l'un et l'autre ayant été illustrés par Charles Baudelaire, ou encore, par Théophile Gautier[4].
+« Hachichin », le garde du corps de Julio, que Langelot assomme, puis évince, évoque un produit stupéfiant, ainsi que la secte des Assassins, l'un et l'autre ayant été illustrés par Charles Baudelaire, ou encore, par Théophile Gautier.
 Vladimir Volkoff évoque les grandes baies mondiales, citant celle de la ville algérienne de Bougie, qu'il a connue durant sa vie d'officier appelé (page 34 de l'édition Hachette).
 Le Copacabana Palace Hôtel existe effectivement à Rio de Janeiro. C'est un établissement de style art déco, ouvert en 1923.
 L'expression portugaise dar um jeito revient abondamment dans ce roman. Elle se traduit par « organiser », « arranger » : se donner les moyens, trouver la voie, y compris en rompant les conventions ou les normes sociales.
 Il s'agit du dernier roman de Langelot illustré par Maurice Paulin, mort en 1986.
 Ce roman est également le dernier à contenir la liste des missions de Langelot présentées par ordre chronologique ; à partir du suivant Langelot gagne la dernière manche les aventures de Langelot sont présentées dans chaque tome par ordre alphabétique.
-À partir de cette même année 1979, l'auteur Vladimir Volkoff devient célèbre, grâce au roman Le Retournement[5]. Le succès de ce dernier lui ouvre des contacts dans le milieu des services secrets français, notamment avec Alexandre de Marenches[6]. Il quitte les États-Unis pour revenir en France, où il s'installe définitivement en 1994[7].</t>
+À partir de cette même année 1979, l'auteur Vladimir Volkoff devient célèbre, grâce au roman Le Retournement. Le succès de ce dernier lui ouvre des contacts dans le milieu des services secrets français, notamment avec Alexandre de Marenches. Il quitte les États-Unis pour revenir en France, où il s'installe définitivement en 1994.</t>
         </is>
       </c>
     </row>
